--- a/biology/Médecine/Richard_Lower_(médecin)/Richard_Lower_(médecin).xlsx
+++ b/biology/Médecine/Richard_Lower_(médecin)/Richard_Lower_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard_Lower_(m%C3%A9decin)</t>
+          <t>Richard_Lower_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Lower, né en Cornouailles en 1631 et décédé le 17 janvier 1691 à Londres, est un médecin anglais qui joue un rôle important dans l'étude de la physiologie et la pathologie cardio-circulatoire moderne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Richard_Lower_(m%C3%A9decin)</t>
+          <t>Richard_Lower_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Lower nait en 1631 à St-Tudy en Cornouailles. Il étudie la médecine à la Westminster School où il fait la connaissance de John Locke, puis à l'Université d'Oxford, où il rencontre Thomas Willis, fondateur de la Royal Society. 
 Son traité de cardiologie « Tractatus de Corde, item de motu et colore sanguinis, et chyli in eum tranfitu » publié en 1669 présente des planches anatomiques des structures du cœur, du péricarde et du poumon et expose ses propres principes concernant la circulation sanguine et la physiologie cardiaque. Il y évoque aussi les expériences d'auto-transfusion réalisées plusieurs années auparavant sur le chien ainsi que d'expériences sur la transfusion chez l'homme.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Richard_Lower_(m%C3%A9decin)</t>
+          <t>Richard_Lower_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Paul Bounhoure Histoire de la cardiologie ed Privat
 Bruno Halioua Histoire de la médecine ed Masson
